--- a/城市运转闭环.xlsx
+++ b/城市运转闭环.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fenghe\蓝盟\蓝盟思维导图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AD60D5-C784-42CE-999F-C3EE71D67E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97C937E-0F23-421F-8F34-81C14FD44483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>吃</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,26 +49,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10岁内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20岁内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40岁内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>老人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,22 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>儿童用药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户口、择校问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活垃圾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>买房难、房租贵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,14 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身体健康</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>医院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,15 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>墓地问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.兴趣培养；
-2.游戏？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交通运输相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,99 +125,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人口贩卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作</t>
   </si>
   <si>
-    <t>35岁内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失业问题</t>
+    <t>校园暴力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政事处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派出所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房企管理局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品安全问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通出行问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人身犯罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神娱乐问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保健品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墓地贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">人口贩卖
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴幼儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.生活垃圾处理；
+2.水、空气污染等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老，无人赡养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康与安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.儿童用药安全
+2.看病贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物价飞涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.失业问题；
+2.工资拖欠等；
+3.工资入不敷出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.无人陪伴
-2.广场舞？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校园暴力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.高考被冒名顶替；
-2.导师欺压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政事处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>派出所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房企管理局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教育局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疫情问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食品安全问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住房问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通出行问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人身犯罪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教育问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神娱乐问题</t>
+2.广场舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.户口、择校问题
+2.高考被冒名顶替；
+3.导师欺压；
+4.学术造假；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人生各阶段困难表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.兴趣培养，缺人培养；
+2.沉迷游戏；
+3.缺乏闲暇时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +315,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,8 +372,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -373,33 +439,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -693,283 +845,271 @@
     <col min="2" max="2" width="7.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="13">
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -982,7 +1122,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -991,60 +1131,62 @@
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1052,17 +1194,17 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1070,7 +1212,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1078,7 +1220,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1096,8 +1238,12 @@
       <c r="D13" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
